--- a/flows/EBND_fund_flow_data.xlsx
+++ b/flows/EBND_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3034"/>
+  <dimension ref="A1:B3048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30775,6 +30775,146 @@
         <v>4.1363063</v>
       </c>
     </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3043" t="n">
+        <v>10.408459</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3046" t="n">
+        <v>33.197998</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3047" t="n">
+        <v>18.603685</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B3048" t="n">
+        <v>34.993683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
